--- a/data/kbvreport_export/faktenblatttabellen_2022-11-13.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2022-11-13.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 17.11.</t>
+    <t xml:space="preserve">Stand 18.11.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">64810120 (77,9 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64814070 (77,9 %)</t>
+    <t xml:space="preserve">64811228 (77,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64814677 (77,9 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,0 PP</t>
@@ -57,37 +57,37 @@
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">3607592 ( 4,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3607769 ( 4,3 %)</t>
+    <t xml:space="preserve">3607739 ( 4,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3607655 ( 4,3 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">61202528 (73,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61206301 (73,6 %)</t>
+    <t xml:space="preserve">61203489 (73,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61207022 (73,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">51935243 (62,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51962819 (62,5 %)</t>
+    <t xml:space="preserve">51942257 (62,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51968674 (62,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. 2. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">10579836 (12,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10982633 (13,2 %)</t>
+    <t xml:space="preserve">10685602 (12,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11074950 (13,3 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,5 PP</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">64,7</t>
   </si>
   <si>
-    <t xml:space="preserve">56,0</t>
+    <t xml:space="preserve">56,1</t>
   </si>
   <si>
     <t xml:space="preserve">Bremen</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">Nordrhein-Westfalen</t>
   </si>
   <si>
-    <t xml:space="preserve">81,6</t>
+    <t xml:space="preserve">81,7</t>
   </si>
   <si>
     <t xml:space="preserve">76,2</t>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">62,8</t>
   </si>
   <si>
-    <t xml:space="preserve">50,1</t>
+    <t xml:space="preserve">50,2</t>
   </si>
   <si>
     <t xml:space="preserve">Sachsen-Anhalt</t>
@@ -366,28 +366,28 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">140219369 (74,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140650197 (74,4 %)</t>
+    <t xml:space="preserve">140332346 (74,4 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140748240 (74,4 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Impfungen Original</t>
   </si>
   <si>
-    <t xml:space="preserve">137786783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137817999</t>
+    <t xml:space="preserve">137795399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137824859</t>
   </si>
   <si>
     <t xml:space="preserve">Impfungen Omikron</t>
   </si>
   <si>
-    <t xml:space="preserve">2432586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2832198</t>
+    <t xml:space="preserve">2536947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2923381</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert Original</t>
@@ -411,22 +411,22 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">31603539 (16,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31609205 (16,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31548604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31549294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59911</t>
+    <t xml:space="preserve">31605011 (16,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31610203 (16,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31548774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31549414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60789</t>
   </si>
   <si>
     <t xml:space="preserve">63255690</t>
@@ -444,10 +444,10 @@
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">12795450 ( 6,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12795456 ( 6,8 %)</t>
+    <t xml:space="preserve">12795449 ( 6,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12795455 ( 6,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -459,10 +459,10 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">3753458 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3754050 ( 2,0 %)</t>
+    <t xml:space="preserve">3753540 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3754148 ( 2,0 %)</t>
   </si>
   <si>
     <t xml:space="preserve">5389230</t>
@@ -474,10 +474,10 @@
     <t xml:space="preserve">Novavax</t>
   </si>
   <si>
-    <t xml:space="preserve">152840 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153492 ( 0,1 %)</t>
+    <t xml:space="preserve">153101 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153555 ( 0,1 %)</t>
   </si>
   <si>
     <t xml:space="preserve">1870770</t>
@@ -489,10 +489,10 @@
     <t xml:space="preserve">Valneva</t>
   </si>
   <si>
-    <t xml:space="preserve">3071 ( 0,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3423 ( 0,0 %)</t>
+    <t xml:space="preserve">3129 ( 0,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3722 ( 0,0 %)</t>
   </si>
   <si>
     <t xml:space="preserve">80780</t>
@@ -588,13 +588,13 @@
     <t xml:space="preserve">- Davon Unter-4-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">62</t>
+    <t xml:space="preserve">63</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
   </si>
   <si>
-    <t xml:space="preserve">-17,7 %</t>
+    <t xml:space="preserve">-19,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 5-bis-14-Jährige</t>
@@ -627,145 +627,136 @@
     <t xml:space="preserve">372</t>
   </si>
   <si>
-    <t xml:space="preserve">300</t>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon Über-80-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon über 80-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitalisierungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15724 ( 2,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11318 ( 3,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davon unter 4-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264 ( 5,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 ( 5,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98 ( 0,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79 ( 0,5%)</t>
   </si>
   <si>
     <t xml:space="preserve">-19,4 %</t>
   </si>
   <si>
-    <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon Über-80-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon über 80-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitalisierungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16937 ( 2,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15335 ( 2,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davon unter 4-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301 ( 5,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259 ( 5,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87 ( 0,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 ( 0,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6,9 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">899 ( 0,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">755 ( 0,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16,0 %</t>
+    <t xml:space="preserve">780 ( 0,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527 ( 0,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 35- bis 59-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">2195 ( 0,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999 ( 0,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8,9 %</t>
+    <t xml:space="preserve">2062 ( 0,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1564 ( 1,0%)</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 60- bis 79-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">5953 ( 4,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5418 ( 4,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9,0 %</t>
+    <t xml:space="preserve">5549 ( 4,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4104 ( 5,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">7502 (17,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6811 (17,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9,2 %</t>
+    <t xml:space="preserve">6971 (17,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4844 (18,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -832,34 +823,34 @@
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">266 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,2%</t>
+    <t xml:space="preserve">269 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,6%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">695 ( 1,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">822 ( 1,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">998 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1177 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,9%</t>
+    <t xml:space="preserve">705 ( 2,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841 ( 1,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,5%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -913,157 +904,157 @@
     <t xml:space="preserve">43,5 %</t>
   </si>
   <si>
+    <t xml:space="preserve">0,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,3 %</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,86</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7,9</t>
+    <t xml:space="preserve"> 5,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">15.12.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">43,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,4</t>
+    <t xml:space="preserve">38,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,5</t>
   </si>
   <si>
     <t xml:space="preserve">22.12.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">41,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.01.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.01.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,81</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,82</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.11.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">40,2 %</t>
   </si>
   <si>
-    <t xml:space="preserve">0,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,9</t>
+    <t xml:space="preserve">0,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,1</t>
   </si>
   <si>
     <t xml:space="preserve">24.11.2022</t>
@@ -1649,22 +1640,22 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -1672,22 +1663,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F2" t="n">
         <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -1695,22 +1686,22 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D3" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F3" t="n">
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
@@ -1718,22 +1709,22 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D4" t="n">
         <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F4" t="n">
         <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1732,10 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D5" t="n">
         <v>169</v>
@@ -1756,7 +1747,7 @@
         <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
@@ -1764,22 +1755,22 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D6" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F6" t="n">
         <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -1787,22 +1778,22 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D7" t="n">
         <v>309</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F7" t="n">
         <v>333</v>
       </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -1810,22 +1801,22 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
         <v>303</v>
       </c>
       <c r="D8" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F8" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
@@ -1833,22 +1824,22 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D9" t="n">
         <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F9" t="n">
         <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10">
@@ -1856,22 +1847,22 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D10" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F10" t="n">
         <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
@@ -1879,22 +1870,22 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="D11" t="n">
         <v>310</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F11" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12">
@@ -1902,22 +1893,22 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D12" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13">
@@ -1925,22 +1916,22 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D13" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F13" t="n">
         <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14">
@@ -1948,22 +1939,22 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" t="s">
         <v>331</v>
-      </c>
-      <c r="C14" t="s">
-        <v>332</v>
       </c>
       <c r="D14" t="n">
         <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="F14" t="n">
         <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15">
@@ -1971,22 +1962,22 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D15" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F15" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16">
@@ -1994,22 +1985,22 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D16" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F16" t="n">
         <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17">
@@ -2017,22 +2008,22 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D17" t="n">
         <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F17" t="n">
         <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18">
@@ -2040,22 +2031,22 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D18" t="n">
         <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F18" t="n">
         <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2074,354 +2065,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" t="s">
         <v>347</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>348</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>350</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>351</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>353</v>
-      </c>
-      <c r="H1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C2" t="n">
         <v>5491252</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F2" t="n">
         <v>118210</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H2" t="n">
         <v>1099</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" t="n">
         <v>37288432</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F3" t="n">
         <v>211417</v>
       </c>
       <c r="G3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H3" t="n">
         <v>609</v>
       </c>
       <c r="I3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C4" t="n">
         <v>5531172</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F4" t="n">
         <v>115422</v>
       </c>
       <c r="G4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H4" t="n">
         <v>553</v>
       </c>
       <c r="I4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C5" t="n">
         <v>8639735</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F5" t="n">
         <v>179985</v>
       </c>
       <c r="G5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H5" t="n">
         <v>483</v>
       </c>
       <c r="I5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C6" t="n">
         <v>5250288</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F6" t="n">
         <v>33888</v>
       </c>
       <c r="G6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H6" t="n">
         <v>457</v>
       </c>
       <c r="I6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C7" t="n">
         <v>36033395</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F7" t="n">
         <v>25339</v>
       </c>
       <c r="G7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H7" t="n">
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C8" t="n">
         <v>23823192</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F8" t="n">
         <v>155588</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H8" t="n">
         <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C9" t="n">
         <v>24179656</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F9" t="n">
         <v>158711</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H9" t="n">
         <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C10" t="n">
         <v>13551539</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F10" t="n">
         <v>21093</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H10" t="n">
         <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C11" t="n">
         <v>6346312</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F11" t="n">
         <v>23525</v>
       </c>
       <c r="G11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H11" t="n">
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2556,7 @@
         <v>241</v>
       </c>
       <c r="G2" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
@@ -2588,7 +2579,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -2657,7 +2648,7 @@
         <v>282</v>
       </c>
       <c r="G6" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -2700,10 +2691,10 @@
         <v>73</v>
       </c>
       <c r="F8" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
@@ -2749,7 +2740,7 @@
         <v>317</v>
       </c>
       <c r="G10" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11">
@@ -2769,7 +2760,7 @@
         <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" t="n">
         <v>310</v>
@@ -2792,10 +2783,10 @@
         <v>88</v>
       </c>
       <c r="F12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G12" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
@@ -2818,7 +2809,7 @@
         <v>209</v>
       </c>
       <c r="G13" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
@@ -2861,10 +2852,10 @@
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G15" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2887,7 +2878,7 @@
         <v>235</v>
       </c>
       <c r="G16" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
@@ -3424,21 +3415,21 @@
         <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s">
         <v>215</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>216</v>
       </c>
-      <c r="C13" t="s">
-        <v>217</v>
-      </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3457,13 +3448,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3474,97 +3465,97 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
         <v>221</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
         <v>224</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>233</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
         <v>236</v>
       </c>
-      <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
-      </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
         <v>240</v>
-      </c>
-      <c r="B7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
         <v>244</v>
-      </c>
-      <c r="B8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3574,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3597,44 +3588,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
         <v>253</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
         <v>257</v>
-      </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3653,13 +3644,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -3667,44 +3658,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
         <v>263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
         <v>267</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
         <v>271</v>
-      </c>
-      <c r="B4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5">
@@ -3712,18 +3703,18 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3731,44 +3722,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
@@ -3776,13 +3767,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
